--- a/投资理财_产品.xlsx
+++ b/投资理财_产品.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="产品" sheetId="2" r:id="rId1"/>
+    <sheet name="P2P产品" sheetId="2" r:id="rId1"/>
     <sheet name="投资券" sheetId="7" r:id="rId2"/>
+    <sheet name="工行" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">P2P产品!$C$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>平台</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,6 +587,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -862,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1198,7 +1267,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1417,4 +1486,38 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>